--- a/config/Datas/test/full_type.xlsx
+++ b/config/Datas/test/full_type.xlsx
@@ -1,180 +1,244 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\bright_gen\CfgDatas\demo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1D1948-E004-4560-96B8-254B3C6BA1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20625" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="97">
-  <si>
-    <t>align:true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="91">
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>row:true</t>
+  </si>
+  <si>
+    <t>title_rows:4</t>
+  </si>
+  <si>
+    <t>__type__</t>
   </si>
   <si>
     <t>x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>row:true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>x8_0</t>
+  </si>
+  <si>
+    <t>x9</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>x11</t>
+  </si>
+  <si>
+    <t>x12</t>
+  </si>
+  <si>
+    <t>x13</t>
+  </si>
+  <si>
+    <t>x14</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
+  <si>
+    <t>k4</t>
+  </si>
+  <si>
+    <t>k5</t>
+  </si>
+  <si>
+    <t>k6</t>
+  </si>
+  <si>
+    <t>k7</t>
+  </si>
+  <si>
+    <t>k8</t>
+  </si>
+  <si>
+    <t>k9</t>
+  </si>
+  <si>
+    <t>k15</t>
+  </si>
+  <si>
+    <t>是否导出</t>
   </si>
   <si>
     <t>禁止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x2:byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x3:short</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x4:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x5:long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  x6:float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x7:double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x8_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x11</t>
-  </si>
-  <si>
-    <t>x12</t>
-  </si>
-  <si>
-    <t>x13</t>
+  </si>
+  <si>
+    <t>array:int</t>
+  </si>
+  <si>
+    <t>set:int</t>
+  </si>
+  <si>
+    <t>map:int:int</t>
+  </si>
+  <si>
+    <t>测试结构列表</t>
+  </si>
+  <si>
+    <t>注释行</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 随便填</t>
+  </si>
+  <si>
+    <t>第4行也是标题行</t>
+  </si>
+  <si>
+    <t>无所谓</t>
+  </si>
+  <si>
+    <t>这样子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoD2</t>
   </si>
   <si>
     <t>huang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>DemoD2,1,2</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>10.2,2.3,3.4,12.8</t>
+  </si>
+  <si>
+    <t>1999-08-24 10:09:09</t>
+  </si>
+  <si>
+    <t>1;2;3</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>1,2,6</t>
+  </si>
+  <si>
+    <t>1,2,7</t>
+  </si>
+  <si>
+    <t>1,2,8</t>
+  </si>
+  <si>
+    <t>1,2,9</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>1,true,2,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2,DemoE1,1,2,3</t>
   </si>
   <si>
     <t>qiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k3</t>
-  </si>
-  <si>
-    <t>k4</t>
-  </si>
-  <si>
-    <t>k5</t>
-  </si>
-  <si>
-    <t>k6</t>
-  </si>
-  <si>
-    <t>k7</t>
-  </si>
-  <si>
-    <t>1,2,4</t>
-  </si>
-  <si>
-    <t>1,2,5</t>
-  </si>
-  <si>
-    <t>1,2,6</t>
-  </si>
-  <si>
-    <t>1,2,7</t>
-  </si>
-  <si>
-    <t>1,2,8</t>
-  </si>
-  <si>
-    <t>1,2,9</t>
+  </si>
+  <si>
+    <t>DemoD2,3,4</t>
+  </si>
+  <si>
+    <t>11,22</t>
+  </si>
+  <si>
+    <t>22,33,44</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2;4;6</t>
   </si>
   <si>
     <t>2,4,7</t>
@@ -195,163 +259,10 @@
     <t>2,4,12</t>
   </si>
   <si>
-    <t>k8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map:int:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,10,2,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>__type__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> DemoD2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DemoD2,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DemoD2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;4;6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结构列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,true,2,false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3,true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.2,2.3,3.4,12.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,33,44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set:int</t>
-  </si>
-  <si>
-    <t>t1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 随便填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ignore:false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_rows:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第4行也是标题行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无所谓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这样子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multi_rows:false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1999-08-24 10:09:09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-01-01 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试别名,1,2,DemoE1,1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试别名,1,2,DemoE1,1,2,4</t>
@@ -376,48 +287,374 @@
   </si>
   <si>
     <t>测试别名,1,2,DemoE1,1,2,11</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -425,26 +662,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -493,7 +1016,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -528,7 +1051,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -702,24 +1225,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
@@ -737,193 +1255,185 @@
     <col min="34" max="34" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:34">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AD2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AF2" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AG2" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AH2" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" t="s">
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="AG2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>75</v>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:34">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -956,61 +1466,61 @@
         <v>111111111</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="O6">
         <v>1988</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Q6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" t="s">
         <v>56</v>
       </c>
-      <c r="S6" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U6" t="s">
-        <v>69</v>
-      </c>
       <c r="V6" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="Y6" t="s">
         <v>58</v>
       </c>
       <c r="Z6" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AA6" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AC6" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AD6" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AE6" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AF6" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AG6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AH6" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -1033,7 +1543,7 @@
         <v>2.5</v>
       </c>
       <c r="I7">
-        <v>19870421.198808201</v>
+        <v>19870421.1988082</v>
       </c>
       <c r="J7">
         <v>453234</v>
@@ -1045,63 +1555,63 @@
         <v>112233445566</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="O7">
         <v>1987</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="S7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34">
+      <c r="B8" t="s">
         <v>50</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>52</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1134,63 +1644,63 @@
         <v>111111111</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="O8">
         <v>1988</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Q8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" t="s">
         <v>56</v>
       </c>
-      <c r="S8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T8" t="s">
-        <v>65</v>
-      </c>
-      <c r="U8" t="s">
-        <v>69</v>
-      </c>
       <c r="V8" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="Y8" t="s">
         <v>58</v>
       </c>
       <c r="Z8" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AA8" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AC8" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AD8" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AE8" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AF8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AG8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AH8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:34">
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1223,63 +1733,63 @@
         <v>111111111</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="O9">
         <v>1988</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Q9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" t="s">
         <v>56</v>
       </c>
-      <c r="S9" t="s">
-        <v>68</v>
-      </c>
-      <c r="T9" t="s">
-        <v>65</v>
-      </c>
-      <c r="U9" t="s">
-        <v>69</v>
-      </c>
       <c r="V9" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s">
         <v>58</v>
       </c>
       <c r="Z9" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AA9" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AC9" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AD9" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AE9" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AF9" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AG9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AH9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:34">
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1312,63 +1822,63 @@
         <v>111111111</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="O10">
         <v>1988</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Q10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" t="s">
         <v>56</v>
       </c>
-      <c r="S10" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" t="s">
-        <v>69</v>
-      </c>
       <c r="V10" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="Y10" t="s">
         <v>58</v>
       </c>
       <c r="Z10" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AA10" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AC10" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AD10" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AE10" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AF10" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AH10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:34">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1401,63 +1911,63 @@
         <v>111111111</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="O11">
         <v>1988</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Q11" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" t="s">
         <v>56</v>
       </c>
-      <c r="S11" t="s">
-        <v>68</v>
-      </c>
-      <c r="T11" t="s">
-        <v>65</v>
-      </c>
-      <c r="U11" t="s">
-        <v>69</v>
-      </c>
       <c r="V11" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s">
         <v>58</v>
       </c>
       <c r="Z11" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AA11" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AC11" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AD11" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AE11" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AF11" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AG11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AH11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:34">
       <c r="B12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1490,63 +2000,63 @@
         <v>111111111</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="O12">
         <v>1988</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Q12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" t="s">
+        <v>55</v>
+      </c>
+      <c r="U12" t="s">
         <v>56</v>
       </c>
-      <c r="S12" t="s">
-        <v>68</v>
-      </c>
-      <c r="T12" t="s">
-        <v>65</v>
-      </c>
-      <c r="U12" t="s">
-        <v>69</v>
-      </c>
       <c r="V12" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="Y12" t="s">
         <v>58</v>
       </c>
       <c r="Z12" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AA12" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AC12" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AD12" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AE12" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AF12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AG12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AH12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:34">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1561,7 +2071,7 @@
         <v>10003</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H13">
         <v>1.28</v>
@@ -1579,63 +2089,63 @@
         <v>111111111</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="O13">
         <v>1988</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U13" t="s">
         <v>56</v>
       </c>
-      <c r="S13" t="s">
-        <v>68</v>
-      </c>
-      <c r="T13" t="s">
-        <v>65</v>
-      </c>
-      <c r="U13" t="s">
-        <v>69</v>
-      </c>
       <c r="V13" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s">
         <v>58</v>
       </c>
       <c r="Z13" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AA13" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AC13" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AD13" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AE13" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AF13" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AG13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AH13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:34">
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1647,7 +2157,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>13234234234</v>
@@ -1668,66 +2178,63 @@
         <v>111111111</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="O14">
         <v>1988</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Q14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S14" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" t="s">
+        <v>55</v>
+      </c>
+      <c r="U14" t="s">
         <v>56</v>
       </c>
-      <c r="S14" t="s">
-        <v>68</v>
-      </c>
-      <c r="T14" t="s">
-        <v>65</v>
-      </c>
-      <c r="U14" t="s">
-        <v>69</v>
-      </c>
       <c r="V14" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="Y14" t="s">
         <v>58</v>
       </c>
       <c r="Z14" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AA14" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AC14" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AD14" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AE14" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AF14" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AG14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AH14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="V15" s="2"/>
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>